--- a/NewWeb/treehugger.xlsx
+++ b/NewWeb/treehugger.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnqua\Desktop\Techkids\NewWeb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A2A68-F078-4859-8385-42290BAFEA70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pyexcel_sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Link</t>
   </si>
@@ -26,221 +31,220 @@
     <t>Title</t>
   </si>
   <si>
-    <t>/cars/bnef-50-new-cars-sold-will-be-electric-2040.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2018/10/tesla-3.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-BNEF: 50% of new cars sold will be electric by 2040
-</t>
-  </si>
-  <si>
-    <t>/green-food/impossible-burger-20-much-closer-real-thing.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/Impossible-Burger.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Impossible Burger 2.0: Much closer to the real thing?
-</t>
-  </si>
-  <si>
-    <t>/sustainable-fashion/would-you-try-10x10-fashion-challenge.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/clothing_on_hangers.jpeg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Would you try the 10x10 fashion challenge?
-</t>
-  </si>
-  <si>
-    <t>/culture/mary-oliver-one-natures-finest-ambassadors-has-gone.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/RIP-Mary-Oliver.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Mary Oliver, one of nature's finest ambassadors, has gone
-</t>
-  </si>
-  <si>
-    <t>/green-food/seafood-processing-water-surprising-source-nutrients.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/tub_of_herring.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Seafood processing water is a surprising source of nutrients
-</t>
-  </si>
-  <si>
-    <t>/bathroom-design/what-are-trends-bathroom-design-2019.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/IMG_2030.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-What are the trends in bathroom design for 2019?
-</t>
-  </si>
-  <si>
-    <t>/ocean-conservation/california-teen-collects-50000-rotting-golf-balls-coastal-waters.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/sea_lion_with_golf_balls_underwater.png.420x232_q70_crop-center.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-California teen collects 50,000 rotting golf balls from coastal waters
-</t>
-  </si>
-  <si>
-    <t>/organic-beauty/ellamila-nail-polish-cleanest-greenest-stuff-ive-seen-yet.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/ellamila_nailpolish.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Want nail polish with fewer chemicals? Check out ella+mila
-</t>
-  </si>
-  <si>
-    <t>/green-architecture/food-and-building-materials-merge-perdues-wood-composite-chicken-nuggets.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/purdue.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Food and building materials merge with Perdue's wood composite chicken nuggets
-</t>
-  </si>
-  <si>
-    <t>/natural-sciences/artificial-intelligence-found-new-species-hominids-bred-humans.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2018/08/neanderthal-couple.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Artificial intelligence found a new species of hominids that bred with humans
-</t>
-  </si>
-  <si>
-    <t>/slideshows/green-architecture/high-fiber-diets-are-good-buildings-too/</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2016/03/specboard.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-High fiber diets are good for buildings, too
-</t>
-  </si>
-  <si>
-    <t>/tiny-houses/magenta-tiny-house-joshua-woodsman.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/5.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Magenta is an ultra-compact tiny house built for $10K
-</t>
-  </si>
-  <si>
-    <t>/corporate-responsibility/course-technology-isnt-societys-great-equalizer.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/tech-equal.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Of course technology isn't society's great equalizer
-</t>
-  </si>
-  <si>
-    <t>/green-food/want-save-world-heres-what-you-should-eat.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/Sardines-Food-Seafood-Fish-Sea-Diet-Fresh-Plate-274459.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Want to save the world? Here's what you should eat
-</t>
-  </si>
-  <si>
-    <t>/culture/beautiful-town-sicily-selling-homes-1.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/sambuca.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Beautiful, historic town in Sicily is selling homes for $1
-</t>
-  </si>
-  <si>
-    <t>/green-food/quorn-launches-vegan-fish-alternative.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/quorn_fishless_hires.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Quorn launches vegan fish alternative
-</t>
-  </si>
-  <si>
-    <t>/sustainable-fashion/year-great-style-conscious-womans-weekly-wardrobe-planner.html</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/Cover_View_Horz.JPG.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-'A Year of Great Style' is the conscious woman's weekly wardrobe planner
-</t>
-  </si>
-  <si>
-    <t>/slideshows/readers-photos/photo-emperor-penguin-chicks-first-journey-sea/</t>
-  </si>
-  <si>
-    <t>https://media.treehugger.com/assets/images/2019/01/penguins.jpg.420x232_q70_crop-center.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Photo: Emperor penguin chick's first journey to sea
+    <t>https://www.treehugger.com//bikes/bikes-are-transportation-and-bike-lanes-should-be-kept-clear-all-year-round.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/IMG_0251.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Bikes are transportation and bike lanes should be kept clear all year round
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//conservation/9-iconic-animals-recovering.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/humpbackwhale.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9 iconic animals brought back from the brink
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//cars/why-do-electric-cars-look-just-cars.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/IMG_2190.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Why do electric cars look just like.... cars?
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//culture/wildlife-paper-sculptures-tiffany-miller-russell.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/MillerRussell_BurstInProgress-A.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Artist's molded 3D paper sculptures show wildlife with personality (Video)
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//sustainable-fashion/patagonias-new-silent-down-coats-push-environmental-standards-even-higher.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/Patagonia_silent_down_Ws_jacket.png.420x232_q70_crop-center.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Patagonia's new Silent Down coats push environmental standards even higher
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//health/these-6-self-control-tips-that-work-better-willpower.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/eating-tarts.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+These 6 self-control tips work better than willpower
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//green-food/how-freeze-food-glass-jars.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/Zero_Waste_Chef_frozen_jars.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+How to freeze food in glass jars
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//corporate-responsibility/every-1-spent-cutting-food-waste-restaurants-get-back-7.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2017/06/food_waste.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+For every $1 spent cutting food waste, restaurants get back $7
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//slideshows/readers-photos/photo-least-tern-adopts-angel-pose/</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/tern.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Photo: Least tern adopts angel pose
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//cars/tour-de-grille-look-latest-pickup-truck-facades.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/IMG_2086.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tour de Grille: A look at the latest pickup truck façades
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//health/real-patch-adams.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/Patch_RedNose_HR_2.jpeg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Here's what the real Patch Adams has been up to
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//culture/mr-money-mustache-has-launched-youtube-channel.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/Mr_Money_Mustache.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mr. Money Mustache has launched a YouTube channel
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//health/what-diet-drinks-may-do-women-over-50.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/soda.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+What diet drinks may do to women over 50
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//health/why-willpower-fails.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/donuts.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Why willpower (often) fails
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//family/uk-doctors-advise-parents-limit-kids-screen-time.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/kid_silhouette_holding_phone.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+UK doctors advise parents to limit kids' screen time
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//green-architecture/another-reason-avoid-concrete-silica-dust.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/demolition.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Another reason to avoid concrete: silica dust
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//green-food/family-mom-vegetarian-and-dad-eats-meat.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2019/02/Karlys_pantry.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In this family, Mom is vegetarian and Dad eats meat
+</t>
+  </si>
+  <si>
+    <t>https://www.treehugger.com//corporate-responsibility/swedish-shipping-go-fossil-free-2045.html</t>
+  </si>
+  <si>
+    <t>https://media.treehugger.com/assets/images/2018/10/P1030053.jpg.420x232_q70_crop-center.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Swedish shipping to go fossil-free by 2045
 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -256,15 +260,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -552,19 +568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,18 +588,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -597,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -608,7 +621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -619,7 +632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -630,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -641,7 +654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -652,7 +665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -663,7 +676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -674,7 +687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -685,7 +698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -696,7 +709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -707,7 +720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -718,7 +731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -729,7 +742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -740,7 +753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -751,7 +764,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -762,7 +775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -774,5 +787,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>